--- a/biology/Zoologie/Herpetoreas_sieboldii/Herpetoreas_sieboldii.xlsx
+++ b/biology/Zoologie/Herpetoreas_sieboldii/Herpetoreas_sieboldii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herpetoreas sieboldii est une espèce de serpents de la famille des Natricidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herpetoreas sieboldii est une espèce de serpents de la famille des Natricidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Pakistan ;
 en Inde dans les États d'Uttar Pradesh, du Sikkim et du Penjab ;
 au Népal ;
@@ -546,9 +560,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Philipp Franz von Siebold[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Philipp Franz von Siebold.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günther, 1860 : Contributions to a knowledge of the reptiles of the Himalaya mountains. - I. Descriptions of the new species. II. List of Himalayan reptiles, with remarks on their horizontal distribution. Proceedings of the Zoological Society of London, vol. 1860, p. 148-175 (texte intégral).</t>
         </is>
